--- a/Files/Vaccine_December 3, 2018.xlsx
+++ b/Files/Vaccine_December 3, 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="294">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">10 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Quadracel</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">$50.70</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">$76.95</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">$92.58</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">$31.97</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">$31.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -221,8 +221,7 @@
     <t xml:space="preserve">$101.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -237,8 +236,7 @@
     <t xml:space="preserve">$23.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -253,7 +251,7 @@
     <t xml:space="preserve">00006-4093-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -292,7 +290,7 @@
     <t xml:space="preserve">$10.55</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -307,7 +305,7 @@
     <t xml:space="preserve">$217.11</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -346,7 +344,7 @@
     <t xml:space="preserve">1 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -373,7 +371,7 @@
     <t xml:space="preserve">$126.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -388,7 +386,7 @@
     <t xml:space="preserve">$75.04</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -403,8 +401,7 @@
     <t xml:space="preserve">$214.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -434,7 +431,7 @@
     <t xml:space="preserve">$100.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -458,7 +455,7 @@
     <t xml:space="preserve">25 pack - 1 dose tube</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -473,7 +470,7 @@
     <t xml:space="preserve">$117.45</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -509,7 +506,7 @@
     <t xml:space="preserve">200-2018-00362</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -545,7 +542,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -560,7 +557,7 @@
     <t xml:space="preserve">$129.30</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -590,13 +587,13 @@
     <t xml:space="preserve">75D30118D01508</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$56.76</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">Heplisav-B</t>
@@ -635,13 +632,13 @@
     <t xml:space="preserve">$30.81</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$144.175</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella </t>
   </si>
   <si>
     <t xml:space="preserve">$45.649</t>
@@ -671,8 +668,7 @@
     <t xml:space="preserve">$102.33</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5]</t>
+    <t xml:space="preserve">Pneumococcal 13-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -735,12 +731,10 @@
     <t xml:space="preserve">58160-0823-11</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0629-15</t>
@@ -755,13 +749,10 @@
     <t xml:space="preserve">200-2018-00015</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-Pediatric dose</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent Pediatric dose</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0518-25</t>
@@ -773,8 +764,7 @@
     <t xml:space="preserve">$19.259</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0418-50</t>
@@ -786,8 +776,7 @@
     <t xml:space="preserve">49281-0418-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent</t>
+    <t xml:space="preserve">Fluarix Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0898-52</t>
@@ -805,8 +794,7 @@
     <t xml:space="preserve">200-2018-00013</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0900-11</t>
@@ -821,8 +809,7 @@
     <t xml:space="preserve">19515-0909-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flucelvax Quadrivalent</t>
@@ -849,8 +836,7 @@
     <t xml:space="preserve">$20.119</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 5 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 5 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria Quadrivalent</t>
@@ -862,12 +848,10 @@
     <t xml:space="preserve">33332-0418-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0305-10</t>
@@ -913,10 +897,6 @@
   </si>
   <si>
     <t xml:space="preserve">$11.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-Quadrivalent</t>
   </si>
 </sst>
 </file>
@@ -3654,7 +3634,7 @@
         <v>273</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
         <v>275</v>
@@ -3683,7 +3663,7 @@
         <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
         <v>276</v>
